--- a/东兴馆店铺运营/沉香线香/2016.12.07/店铺经营情况2016.12.07.xlsx
+++ b/东兴馆店铺运营/沉香线香/2016.12.07/店铺经营情况2016.12.07.xlsx
@@ -979,10 +979,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M128" sqref="M128"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5674,6 +5674,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A67:A70"/>
     <mergeCell ref="A122:A125"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="A2:A5"/>
@@ -5690,9 +5693,6 @@
     <mergeCell ref="A101:A104"/>
     <mergeCell ref="A94:A97"/>
     <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A67:A70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5704,7 +5704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA120"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
@@ -5771,7 +5771,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -5810,7 +5810,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="15" t="s">
         <v>73</v>
       </c>
@@ -5850,7 +5850,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -5861,10 +5861,10 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
     </row>
     <row r="6" spans="1:21" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="C6" s="16" t="s">
         <v>34</v>
       </c>
@@ -5921,7 +5921,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="C7" s="15" t="s">
         <v>48</v>
       </c>
@@ -5978,7 +5978,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
@@ -6080,10 +6080,10 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -6119,15 +6119,15 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:21" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
@@ -6184,8 +6184,8 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -6241,8 +6241,8 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
@@ -6297,8 +6297,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="19" spans="1:21" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
@@ -6345,7 +6345,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="49" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -6384,7 +6384,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="15" t="s">
         <v>89</v>
       </c>
@@ -6426,7 +6426,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="15" t="s">
         <v>90</v>
       </c>
@@ -6454,13 +6454,13 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
     </row>
     <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="48"/>
+      <c r="A24" s="49"/>
     </row>
     <row r="25" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16" t="s">
         <v>34</v>
@@ -6519,7 +6519,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="C26" s="17" t="s">
         <v>48</v>
       </c>
@@ -6577,7 +6577,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="15" t="s">
         <v>88</v>
       </c>
@@ -6638,7 +6638,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
     </row>
     <row r="30" spans="1:21" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
@@ -6685,7 +6685,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="49" t="s">
         <v>94</v>
       </c>
       <c r="C31" s="26" t="s">
@@ -6726,7 +6726,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="15" t="s">
         <v>95</v>
       </c>
@@ -6766,7 +6766,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="48"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="15" t="s">
         <v>96</v>
       </c>
@@ -6793,13 +6793,13 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="48"/>
+      <c r="A34" s="49"/>
     </row>
     <row r="35" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
     </row>
     <row r="36" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="C37" s="26" t="s">
         <v>48</v>
       </c>
@@ -6915,7 +6915,7 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="15" t="s">
         <v>97</v>
       </c>
@@ -6976,10 +6976,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="48"/>
+      <c r="A39" s="49"/>
     </row>
     <row r="40" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
     </row>
     <row r="42" spans="1:21" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
@@ -7026,7 +7026,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="49" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -7067,7 +7067,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="48"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="15" t="s">
         <v>102</v>
       </c>
@@ -7107,7 +7107,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="48"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="15" t="s">
         <v>103</v>
       </c>
@@ -7134,10 +7134,10 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="48"/>
+      <c r="A46" s="49"/>
     </row>
     <row r="47" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="48"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16" t="s">
         <v>34</v>
@@ -7196,7 +7196,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="48"/>
+      <c r="A48" s="49"/>
       <c r="C48" s="26" t="s">
         <v>48</v>
       </c>
@@ -7254,7 +7254,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="48"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="15" t="s">
         <v>111</v>
       </c>
@@ -7315,7 +7315,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="C50" s="26" t="s">
         <v>104</v>
       </c>
@@ -7373,10 +7373,10 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="48"/>
+      <c r="A51" s="49"/>
     </row>
     <row r="52" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
     </row>
     <row r="54" spans="1:21" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
@@ -7423,12 +7423,12 @@
       </c>
     </row>
     <row r="55" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="49" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="48"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="15" t="s">
         <v>110</v>
       </c>
@@ -7468,7 +7468,7 @@
       </c>
     </row>
     <row r="57" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="48"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="15" t="s">
         <v>112</v>
       </c>
@@ -7480,7 +7480,7 @@
       </c>
     </row>
     <row r="58" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="48"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="32"/>
       <c r="C58" s="16" t="s">
         <v>34</v>
@@ -7539,7 +7539,7 @@
       </c>
     </row>
     <row r="59" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="48"/>
+      <c r="A59" s="49"/>
       <c r="C59" s="26" t="s">
         <v>50</v>
       </c>
@@ -7597,10 +7597,10 @@
       </c>
     </row>
     <row r="60" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="48"/>
+      <c r="A60" s="49"/>
     </row>
     <row r="61" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="48"/>
+      <c r="A61" s="49"/>
     </row>
     <row r="63" spans="1:21" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
@@ -7647,7 +7647,7 @@
       </c>
     </row>
     <row r="64" spans="1:21" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="49" t="s">
         <v>113</v>
       </c>
       <c r="C64" s="26" t="s">
@@ -7688,7 +7688,7 @@
       </c>
     </row>
     <row r="65" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="48"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="37" t="s">
         <v>134</v>
       </c>
@@ -7729,7 +7729,7 @@
       <c r="O65" s="26"/>
     </row>
     <row r="66" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="48"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="37" t="s">
         <v>135</v>
       </c>
@@ -7756,7 +7756,7 @@
       </c>
     </row>
     <row r="67" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="48"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="32"/>
       <c r="C67" s="16" t="s">
         <v>34</v>
@@ -7815,7 +7815,7 @@
       </c>
     </row>
     <row r="68" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="48"/>
+      <c r="A68" s="49"/>
       <c r="C68" s="26" t="s">
         <v>48</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="V68" s="26"/>
     </row>
     <row r="69" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="48"/>
+      <c r="A69" s="49"/>
       <c r="B69" s="37" t="s">
         <v>139</v>
       </c>
@@ -7935,7 +7935,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="48"/>
+      <c r="A70" s="49"/>
     </row>
     <row r="73" spans="1:23" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
@@ -7982,7 +7982,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="49" t="s">
         <v>138</v>
       </c>
       <c r="C74" s="26" t="s">
@@ -8022,7 +8022,7 @@
       <c r="O74" s="26"/>
     </row>
     <row r="75" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="48"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="37" t="s">
         <v>134</v>
       </c>
@@ -8064,13 +8064,13 @@
       <c r="P75" s="26"/>
     </row>
     <row r="76" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="48"/>
+      <c r="A76" s="49"/>
       <c r="B76" s="37" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="48"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="32"/>
       <c r="C77" s="16" t="s">
         <v>34</v>
@@ -8129,7 +8129,7 @@
       </c>
     </row>
     <row r="78" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="48"/>
+      <c r="A78" s="49"/>
       <c r="C78" s="26" t="s">
         <v>48</v>
       </c>
@@ -8189,7 +8189,7 @@
       <c r="W78" s="26"/>
     </row>
     <row r="79" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="48"/>
+      <c r="A79" s="49"/>
       <c r="C79" s="26" t="s">
         <v>50</v>
       </c>
@@ -8248,7 +8248,7 @@
       <c r="V79" s="26"/>
     </row>
     <row r="80" spans="1:23" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="48"/>
+      <c r="A80" s="49"/>
     </row>
     <row r="83" spans="1:24" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
@@ -8295,7 +8295,7 @@
       </c>
     </row>
     <row r="84" spans="1:24" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C84" s="26" t="s">
@@ -8336,7 +8336,7 @@
       <c r="P84" s="26"/>
     </row>
     <row r="85" spans="1:24" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="48"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="37" t="s">
         <v>146</v>
       </c>
@@ -8379,10 +8379,10 @@
       <c r="Q85" s="26"/>
     </row>
     <row r="86" spans="1:24" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="48"/>
+      <c r="A86" s="49"/>
     </row>
     <row r="87" spans="1:24" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="48"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="32"/>
       <c r="C87" s="16" t="s">
         <v>34</v>
@@ -8441,7 +8441,7 @@
       </c>
     </row>
     <row r="88" spans="1:24" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="48"/>
+      <c r="A88" s="49"/>
       <c r="C88" s="26" t="s">
         <v>48</v>
       </c>
@@ -8504,7 +8504,7 @@
       <c r="X88" s="26"/>
     </row>
     <row r="89" spans="1:24" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="48"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="37" t="s">
         <v>147</v>
       </c>
@@ -8569,7 +8569,7 @@
       <c r="W89" s="26"/>
     </row>
     <row r="90" spans="1:24" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="48"/>
+      <c r="A90" s="49"/>
     </row>
     <row r="93" spans="1:24" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
@@ -8616,7 +8616,7 @@
       </c>
     </row>
     <row r="94" spans="1:24" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="49" t="s">
         <v>143</v>
       </c>
       <c r="C94" s="26" t="s">
@@ -8658,7 +8658,7 @@
       <c r="Q94" s="26"/>
     </row>
     <row r="95" spans="1:24" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="48"/>
+      <c r="A95" s="49"/>
       <c r="B95" s="40" t="s">
         <v>146</v>
       </c>
@@ -8702,10 +8702,10 @@
       <c r="R95" s="26"/>
     </row>
     <row r="96" spans="1:24" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="48"/>
+      <c r="A96" s="49"/>
     </row>
     <row r="97" spans="1:26" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="48"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="32"/>
       <c r="C97" s="16" t="s">
         <v>34</v>
@@ -8764,7 +8764,7 @@
       </c>
     </row>
     <row r="98" spans="1:26" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="48"/>
+      <c r="A98" s="49"/>
       <c r="C98" s="26" t="s">
         <v>48</v>
       </c>
@@ -8826,7 +8826,7 @@
       <c r="Y98" s="26"/>
     </row>
     <row r="99" spans="1:26" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="48"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="40" t="s">
         <v>147</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="X99" s="26"/>
     </row>
     <row r="100" spans="1:26" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="48"/>
+      <c r="A100" s="49"/>
     </row>
     <row r="103" spans="1:26" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
@@ -8937,7 +8937,7 @@
       </c>
     </row>
     <row r="104" spans="1:26" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="49" t="s">
         <v>148</v>
       </c>
       <c r="C104" s="26" t="s">
@@ -8980,7 +8980,7 @@
       <c r="R104" s="26"/>
     </row>
     <row r="105" spans="1:26" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="48"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="42" t="s">
         <v>146</v>
       </c>
@@ -9025,10 +9025,10 @@
       <c r="S105" s="26"/>
     </row>
     <row r="106" spans="1:26" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="48"/>
+      <c r="A106" s="49"/>
     </row>
     <row r="107" spans="1:26" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="48"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="32"/>
       <c r="C107" s="16" t="s">
         <v>34</v>
@@ -9087,7 +9087,7 @@
       </c>
     </row>
     <row r="108" spans="1:26" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="48"/>
+      <c r="A108" s="49"/>
       <c r="C108" s="26" t="s">
         <v>48</v>
       </c>
@@ -9150,7 +9150,7 @@
       <c r="Z108" s="26"/>
     </row>
     <row r="109" spans="1:26" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="48"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="42" t="s">
         <v>147</v>
       </c>
@@ -9215,7 +9215,7 @@
       <c r="Y109" s="26"/>
     </row>
     <row r="110" spans="1:26" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="48"/>
+      <c r="A110" s="49"/>
       <c r="C110" s="26" t="s">
         <v>149</v>
       </c>
@@ -9317,7 +9317,7 @@
       </c>
     </row>
     <row r="114" spans="1:27" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="49" t="s">
         <v>153</v>
       </c>
       <c r="C114" s="26" t="s">
@@ -9361,7 +9361,7 @@
       <c r="S114" s="26"/>
     </row>
     <row r="115" spans="1:27" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="48"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="43" t="s">
         <v>80</v>
       </c>
@@ -9407,10 +9407,10 @@
       <c r="T115" s="26"/>
     </row>
     <row r="116" spans="1:27" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="48"/>
+      <c r="A116" s="49"/>
     </row>
     <row r="117" spans="1:27" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="48"/>
+      <c r="A117" s="49"/>
       <c r="B117" s="32"/>
       <c r="C117" s="16" t="s">
         <v>34</v>
@@ -9469,7 +9469,7 @@
       </c>
     </row>
     <row r="118" spans="1:27" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="48"/>
+      <c r="A118" s="49"/>
       <c r="C118" s="26" t="s">
         <v>48</v>
       </c>
@@ -9533,7 +9533,7 @@
       <c r="AA118" s="26"/>
     </row>
     <row r="119" spans="1:27" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="48"/>
+      <c r="A119" s="49"/>
       <c r="B119" s="43" t="s">
         <v>88</v>
       </c>
@@ -9599,7 +9599,7 @@
       <c r="Z119" s="26"/>
     </row>
     <row r="120" spans="1:27" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="48"/>
+      <c r="A120" s="49"/>
       <c r="C120" s="26" t="s">
         <v>157</v>
       </c>
@@ -9659,6 +9659,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="A104:A110"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A20:A28"/>
@@ -9667,12 +9673,6 @@
     <mergeCell ref="A55:A61"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="A31:A40"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="A104:A110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9730,7 +9730,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -9753,7 +9753,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="6" t="s">
         <v>64</v>
       </c>
@@ -9771,13 +9771,13 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="6" t="s">
         <v>66</v>
       </c>
@@ -9822,7 +9822,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -9845,7 +9845,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="6" t="s">
         <v>64</v>
       </c>
@@ -9863,13 +9863,13 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
@@ -9901,7 +9901,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="49" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -9924,7 +9924,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
@@ -9942,13 +9942,13 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="6" t="s">
         <v>66</v>
       </c>
@@ -9980,7 +9980,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="49" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -10003,7 +10003,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
@@ -10021,19 +10021,19 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="48"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
     </row>
     <row r="27" spans="1:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
@@ -10062,7 +10062,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="49" t="s">
         <v>91</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -10085,7 +10085,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="15" t="s">
         <v>32</v>
       </c>
@@ -10103,7 +10103,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="15" t="s">
         <v>92</v>
       </c>
@@ -10123,13 +10123,13 @@
       <c r="U30" s="35"/>
     </row>
     <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="15" t="s">
         <v>66</v>
       </c>
@@ -10161,7 +10161,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -10181,7 +10181,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="22" t="s">
         <v>32</v>
       </c>
@@ -10199,13 +10199,13 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="22" t="s">
         <v>65</v>
       </c>
@@ -10242,7 +10242,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>101</v>
       </c>
       <c r="B42" s="24" t="s">
@@ -10262,7 +10262,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="24" t="s">
         <v>32</v>
       </c>
@@ -10280,19 +10280,19 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="48"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="48"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="48"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="24" t="s">
         <v>66</v>
       </c>
@@ -10395,7 +10395,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="49" t="s">
         <v>113</v>
       </c>
       <c r="B50" s="35"/>
@@ -10440,7 +10440,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="48"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="35"/>
       <c r="D51" s="35" t="s">
         <v>118</v>
@@ -10483,7 +10483,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="35"/>
       <c r="D52" s="35" t="s">
         <v>118</v>
@@ -10590,7 +10590,7 @@
       </c>
     </row>
     <row r="57" spans="1:22" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="49" t="s">
         <v>137</v>
       </c>
       <c r="D57" s="37" t="s">
@@ -10634,7 +10634,7 @@
       </c>
     </row>
     <row r="58" spans="1:22" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="48"/>
+      <c r="A58" s="49"/>
       <c r="D58" s="37" t="s">
         <v>118</v>
       </c>
@@ -10670,7 +10670,7 @@
       </c>
     </row>
     <row r="59" spans="1:22" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="48"/>
+      <c r="A59" s="49"/>
       <c r="D59" s="37" t="s">
         <v>118</v>
       </c>
@@ -10764,7 +10764,7 @@
       </c>
     </row>
     <row r="64" spans="1:22" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="49" t="s">
         <v>144</v>
       </c>
       <c r="D64" s="40" t="s">
@@ -10802,7 +10802,7 @@
       </c>
     </row>
     <row r="65" spans="1:22" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="48"/>
+      <c r="A65" s="49"/>
       <c r="D65" s="40" t="s">
         <v>118</v>
       </c>
@@ -10835,7 +10835,7 @@
       </c>
     </row>
     <row r="66" spans="1:22" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="48"/>
+      <c r="A66" s="49"/>
       <c r="D66" s="40" t="s">
         <v>118</v>
       </c>
@@ -10926,7 +10926,7 @@
       </c>
     </row>
     <row r="71" spans="1:22" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="49" t="s">
         <v>160</v>
       </c>
       <c r="D71" s="42" t="s">
@@ -10967,7 +10967,7 @@
       </c>
     </row>
     <row r="72" spans="1:22" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="48"/>
+      <c r="A72" s="49"/>
       <c r="D72" s="42" t="s">
         <v>118</v>
       </c>
@@ -11006,7 +11006,7 @@
       </c>
     </row>
     <row r="73" spans="1:22" s="42" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="48"/>
+      <c r="A73" s="49"/>
       <c r="D73" s="42" t="s">
         <v>118</v>
       </c>
@@ -11098,7 +11098,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="49" t="s">
         <v>170</v>
       </c>
       <c r="D78" s="45" t="s">
@@ -11136,7 +11136,7 @@
       </c>
     </row>
     <row r="79" spans="1:22" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="48"/>
+      <c r="A79" s="49"/>
       <c r="D79" s="45" t="s">
         <v>118</v>
       </c>
@@ -11175,7 +11175,7 @@
       </c>
     </row>
     <row r="80" spans="1:22" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="48"/>
+      <c r="A80" s="49"/>
       <c r="D80" s="45" t="s">
         <v>118</v>
       </c>
@@ -11215,6 +11215,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A48:V48"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A42:A46"/>
@@ -11223,11 +11228,6 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A50:A52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
